--- a/FlightWeight.xlsx
+++ b/FlightWeight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\git reps\ArduinoRocket(TVC)\ArduinoRocket-TVC-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02607DAB-B369-47D1-A918-CBDA39E29383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367CBC37-2779-4827-864E-0B44434904FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0340CCC-5063-440C-B122-59E001333A35}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{E0340CCC-5063-440C-B122-59E001333A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>sno</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Additional Weight</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -139,13 +136,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C042F8C9-48D4-4E7C-B848-6E1F8F039D3E}" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0">
-  <autoFilter ref="A1:D17" xr:uid="{4F444083-4E92-450F-87A0-C3BC2B6D9E68}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C042F8C9-48D4-4E7C-B848-6E1F8F039D3E}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{4F444083-4E92-450F-87A0-C3BC2B6D9E68}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{657AB7BB-1206-45FE-8D0D-5F3A4524E709}" name="sno"/>
     <tableColumn id="2" xr3:uid="{8E53433B-DB19-4E4B-AA12-D305FAB5007A}" name="partname "/>
     <tableColumn id="3" xr3:uid="{528DFA3F-B8F4-4041-A3B5-26CB57F52FF2}" name="weight"/>
-    <tableColumn id="4" xr3:uid="{8581E453-551A-4BE0-879F-6ED14F7109C3}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544BADEA-6615-4C16-B81C-5F1C0208B85E}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +457,7 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,11 +467,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -486,7 +479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -497,7 +490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -508,7 +501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -519,7 +512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -530,7 +523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -541,7 +534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -552,7 +545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -563,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -574,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -585,7 +578,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -594,7 +587,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -602,7 +595,7 @@
         <v>104.6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
